--- a/data_processed/20250725/BTCUSDVOLSURFACE_REGULARIZED_20250725.xlsx
+++ b/data_processed/20250725/BTCUSDVOLSURFACE_REGULARIZED_20250725.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -33924,7 +33924,7 @@
       </c>
       <c r="G1327" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -34632,7 +34632,7 @@
       </c>
       <c r="G1355" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36850,7 +36850,7 @@
       </c>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36879,7 +36879,7 @@
       </c>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38866,7 +38866,7 @@
       </c>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -45384,7 +45384,7 @@
       </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250725/BTCUSDVOLSURFACE_REGULARIZED_20250725.xlsx
+++ b/data_processed/20250725/BTCUSDVOLSURFACE_REGULARIZED_20250725.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -18334,7 +18334,7 @@
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="G1362" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35546,7 +35546,7 @@
       </c>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35604,7 +35604,7 @@
       </c>
       <c r="G1391" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35749,7 +35749,7 @@
       </c>
       <c r="G1396" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35861,7 +35861,7 @@
       </c>
       <c r="G1400" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36622,7 +36622,7 @@
       </c>
       <c r="G1429" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36651,7 +36651,7 @@
       </c>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37520,7 +37520,7 @@
       </c>
       <c r="G1463" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37549,7 +37549,7 @@
       </c>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37636,7 +37636,7 @@
       </c>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38493,7 +38493,7 @@
       </c>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38609,7 +38609,7 @@
       </c>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38754,7 +38754,7 @@
       </c>
       <c r="G1509" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38837,7 +38837,7 @@
       </c>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41986,7 +41986,7 @@
       </c>
       <c r="G1637" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42073,7 +42073,7 @@
       </c>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46125,7 +46125,7 @@
       </c>
       <c r="G1800" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
